--- a/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
+++ b/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E66F32-008D-470B-BAA0-89F6C117438C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4BEB4-A750-4345-8888-4FED0BDA9C7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
   <si>
     <t>Sprint Goal</t>
   </si>
@@ -159,13 +159,83 @@
   </si>
   <si>
     <t>As a user (parent), I need to be able to access my child’s data because of being able to access up to date information on how my child is performing in school and at home.</t>
+  </si>
+  <si>
+    <t>Sprint Goal 6</t>
+  </si>
+  <si>
+    <t>Continue to finish Login Screen, Game Selection, Stats, and documenation for Deliverable 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a user (parent), I want to have access to a variety of games that teach my child different skills like reading, writing, and math.</t>
+    </r>
+  </si>
+  <si>
+    <t>As a user (instructor), I want Teaching Tasks to be updateable with new information based on what I teach the kids in school.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want to add initial diagnostic information so that my clients (children) can pick up where they left off from my teaching.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want there to be positive reinforcement so that my clients (children) know when they have done something right.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>As a user (instructor), I want Teaching Tasks to follow the proper (ABA and DTI) guidelines when educating my clients so that I know my client will be able to learn and not get frustrated and not want to continue.</t>
+    </r>
+  </si>
+  <si>
+    <t>As a user (instructor), I want the interface of Teaching Tasks to be suitable for all of my clients (children) so that they will be able to properly use and learn from Teaching Tasks.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want to be able to adjust sensory information (such as brightness or volume), so that I don't get agitated.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want to be able to redo tasks so I can improve my learning.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I need an app that can help me automate the learning process of shapes and colors to reach more students.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want a method that will help my child learn in a proven and regulated way, so that I don’t need to spend so much time teaching them.</t>
+  </si>
+  <si>
+    <t>As a user (child), who has not yet learned to read using the application, I want the game to have many audio cues to make it as accessible to me as it is to anyone else.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want the game to recognize when I am struggling and revert back to something, I was more successful at so that I stay engaged and do not get frustrated.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want to be aware of what my child is working on so that I can positively reinforce them while at home.</t>
+  </si>
+  <si>
+    <t>As a user (instructor) I want the app to probe the child to get an understanding of what they know so that the app can better teach the child things that they have not learned, as well as not teach them things they have already mastered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +298,37 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +345,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -356,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -474,6 +579,72 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +963,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1211,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1461,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B4DDD9-C6F2-7644-AFC0-5BC228DDA734}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2169,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,424 +2590,890 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D424B6-0A2D-4B8E-A00A-7527EDEF6888}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="55"/>
+    <col min="6" max="6" width="12.140625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="55" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="55" customWidth="1"/>
+    <col min="10" max="10" width="17" style="55" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="55" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="55" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" style="55" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
     </row>
     <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="58">
         <v>6</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="59">
         <v>4</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="60">
+        <v>6</v>
+      </c>
+      <c r="G2" s="61">
+        <v>0</v>
+      </c>
+      <c r="H2" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="61">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="61">
+        <v>0</v>
+      </c>
+      <c r="M2" s="61">
+        <v>0</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+    </row>
+    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="58">
+        <v>3</v>
+      </c>
+      <c r="D3" s="59">
+        <v>2</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="60">
+        <v>6</v>
+      </c>
+      <c r="G3" s="61">
+        <v>0</v>
+      </c>
+      <c r="H3" s="61">
+        <v>0</v>
+      </c>
+      <c r="I3" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="61">
+        <v>0</v>
+      </c>
+      <c r="K3" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="61">
+        <v>0</v>
+      </c>
+      <c r="M3" s="61">
+        <v>0</v>
+      </c>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="60">
+        <v>4</v>
+      </c>
+      <c r="G4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="58">
+        <v>4</v>
+      </c>
+      <c r="D5" s="60">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="60">
+        <v>4</v>
+      </c>
+      <c r="G5" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="58">
+        <v>4</v>
+      </c>
+      <c r="D6" s="60">
+        <v>2</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="60">
+        <v>4</v>
+      </c>
+      <c r="G6" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+    </row>
+    <row r="7" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="65"/>
+      <c r="B7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+    </row>
+    <row r="8" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+    </row>
+    <row r="11" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="65"/>
+      <c r="B11" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="65"/>
+      <c r="B12" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+    </row>
+    <row r="13" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65"/>
+      <c r="B13" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+    </row>
+    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="58">
+        <v>2</v>
+      </c>
+      <c r="D14" s="60">
+        <v>1</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="60">
+        <v>4</v>
+      </c>
+      <c r="G14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="59">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="60">
+        <v>6</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="58">
+        <v>4</v>
+      </c>
+      <c r="D16" s="64">
+        <v>2</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="60">
+        <v>4</v>
+      </c>
+      <c r="G16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+    </row>
+    <row r="17" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="18" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+    </row>
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="58">
+        <v>4</v>
+      </c>
+      <c r="D20" s="73">
+        <v>2</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="60">
+        <v>4</v>
+      </c>
+      <c r="G20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="M20" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+    </row>
+    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="58">
+        <v>4</v>
+      </c>
+      <c r="D21" s="59">
+        <v>2</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="60">
+        <v>6</v>
+      </c>
+      <c r="G21" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="L21" s="61">
+        <v>0</v>
+      </c>
+      <c r="M21" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65"/>
+      <c r="B22" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+    </row>
+    <row r="23" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+    </row>
+    <row r="24" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65"/>
+      <c r="B24" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+    </row>
+    <row r="25" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="54"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="51"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="46">
-        <v>0</v>
-      </c>
-      <c r="H2" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="46">
-        <v>0</v>
-      </c>
-      <c r="K2" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="46">
-        <v>0</v>
-      </c>
-      <c r="M2" s="46">
-        <v>0</v>
-      </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="44">
-        <v>3</v>
-      </c>
-      <c r="D3" s="45">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="32">
-        <v>5</v>
-      </c>
-      <c r="G3" s="46">
-        <v>0</v>
-      </c>
-      <c r="H3" s="46">
-        <v>0</v>
-      </c>
-      <c r="I3" s="46">
-        <v>0.9</v>
-      </c>
-      <c r="J3" s="46">
-        <v>0</v>
-      </c>
-      <c r="K3" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="46">
-        <v>0</v>
-      </c>
-      <c r="M3" s="46">
-        <v>0</v>
-      </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="44">
-        <v>4</v>
-      </c>
-      <c r="D4" s="45">
-        <v>2</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="32">
-        <v>5</v>
-      </c>
-      <c r="G4" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="L4" s="46">
-        <v>0</v>
-      </c>
-      <c r="M4" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="44">
-        <v>1</v>
-      </c>
-      <c r="D5" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="32">
-        <v>5</v>
-      </c>
-      <c r="G5" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="I5" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="46">
-        <v>0.3</v>
-      </c>
-      <c r="L5" s="46">
-        <v>0</v>
-      </c>
-      <c r="M5" s="46">
-        <v>0.1</v>
-      </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="36"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38" t="s">
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
+++ b/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4BEB4-A750-4345-8888-4FED0BDA9C7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47B456-E56B-4AED-BCCC-70DB245E7A76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
@@ -354,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -456,12 +456,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -643,8 +746,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2590,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D424B6-0A2D-4B8E-A00A-7527EDEF6888}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,7 +3238,7 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
     </row>
-    <row r="17" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="66" t="s">
         <v>43</v>
@@ -3141,7 +3257,7 @@
       <c r="N17" s="65"/>
       <c r="O17" s="65"/>
     </row>
-    <row r="18" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65"/>
       <c r="B18" s="76" t="s">
         <v>52</v>
@@ -3160,7 +3276,7 @@
       <c r="N18" s="65"/>
       <c r="O18" s="65"/>
     </row>
-    <row r="19" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="76" t="s">
         <v>55</v>
@@ -3179,7 +3295,7 @@
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>
     </row>
-    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="54"/>
       <c r="B20" s="72" t="s">
         <v>25</v>
@@ -3220,7 +3336,7 @@
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
     </row>
-    <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="54"/>
       <c r="B21" s="62" t="s">
         <v>32</v>
@@ -3261,7 +3377,7 @@
       <c r="N21" s="54"/>
       <c r="O21" s="54"/>
     </row>
-    <row r="22" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="76" t="s">
         <v>49</v>
@@ -3280,7 +3396,7 @@
       <c r="N22" s="65"/>
       <c r="O22" s="65"/>
     </row>
-    <row r="23" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="76" t="s">
         <v>50</v>
@@ -3299,7 +3415,7 @@
       <c r="N23" s="65"/>
       <c r="O23" s="65"/>
     </row>
-    <row r="24" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
       <c r="B24" s="76" t="s">
         <v>53</v>
@@ -3318,7 +3434,7 @@
       <c r="N24" s="65"/>
       <c r="O24" s="65"/>
     </row>
-    <row r="25" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="76" t="s">
         <v>54</v>
@@ -3337,7 +3453,7 @@
       <c r="N25" s="65"/>
       <c r="O25" s="65"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="B26" s="62"/>
       <c r="C26" s="58"/>
@@ -3354,7 +3470,7 @@
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
       <c r="B27" s="63"/>
       <c r="C27" s="58"/>
@@ -3368,10 +3484,10 @@
       <c r="K27" s="61"/>
       <c r="L27" s="61"/>
       <c r="M27" s="61"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="B28" s="62"/>
       <c r="C28" s="58"/>
@@ -3384,13 +3500,14 @@
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
       <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="77" t="s">
+      <c r="M28" s="77"/>
+      <c r="N28" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="O28" s="51"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O28" s="83"/>
+      <c r="P28" s="79"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -3403,15 +3520,16 @@
       <c r="J29" s="54"/>
       <c r="K29" s="54"/>
       <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="78" t="s">
+      <c r="M29" s="78"/>
+      <c r="N29" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="78" t="s">
+      <c r="O29" s="85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P29" s="79"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -3424,15 +3542,16 @@
       <c r="J30" s="54"/>
       <c r="K30" s="54"/>
       <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="51" t="s">
+      <c r="M30" s="78"/>
+      <c r="N30" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="51" t="s">
+      <c r="O30" s="87" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P30" s="79"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -3445,15 +3564,16 @@
       <c r="J31" s="54"/>
       <c r="K31" s="54"/>
       <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="51" t="s">
+      <c r="M31" s="78"/>
+      <c r="N31" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="51" t="s">
+      <c r="O31" s="87" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P31" s="79"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -3466,11 +3586,16 @@
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
       <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51" t="s">
+      <c r="M32" s="78"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="89" t="s">
         <v>10</v>
       </c>
+      <c r="P32" s="79"/>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
+++ b/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47B456-E56B-4AED-BCCC-70DB245E7A76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB70D1E-4374-4D3D-A1E1-D608538091FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D424B6-0A2D-4B8E-A00A-7527EDEF6888}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="60" t="s">
         <v>22</v>
@@ -2827,7 +2827,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>22</v>
@@ -2868,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="64">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="61">
         <v>0.1</v>
@@ -2909,13 +2909,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="61">
         <v>0.1</v>
@@ -2950,13 +2950,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6" s="61">
         <v>0.1</v>
@@ -3124,13 +3124,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" s="61">
         <v>0.1</v>
@@ -3165,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="59">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>22</v>
@@ -3206,13 +3206,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" s="61">
         <v>0.1</v>
@@ -3304,13 +3304,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="60">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20" s="61">
         <v>0.1</v>
@@ -3345,7 +3345,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>22</v>

--- a/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
+++ b/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Desktop/Blackbear-Consultants-Git/Deliverable_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB70D1E-4374-4D3D-A1E1-D608538091FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC501E7-890B-A04A-A4EF-76C1C3D382B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-Sprint 1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="D3-Sprint 5" sheetId="6" r:id="rId5"/>
     <sheet name="D4-Sprint 6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -761,6 +761,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,24 +1084,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="10"/>
@@ -1181,7 +1183,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="D4" s="10"/>
@@ -1193,7 +1195,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="D5" s="10"/>
@@ -1205,7 +1207,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="10"/>
@@ -1217,7 +1219,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="D7" s="10"/>
@@ -1229,7 +1231,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="D8" s="10"/>
@@ -1247,7 +1249,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1262,7 +1264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1277,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1292,7 +1294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1305,15 +1307,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
     </row>
@@ -1330,25 +1332,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="12"/>
       <c r="D3" s="10"/>
@@ -1430,7 +1432,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="12"/>
       <c r="D4" s="10"/>
@@ -1442,7 +1444,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="12"/>
       <c r="D5" s="10"/>
@@ -1454,7 +1456,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="D6" s="10"/>
@@ -1466,7 +1468,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="D7" s="10"/>
@@ -1478,7 +1480,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="D8" s="10"/>
@@ -1496,7 +1498,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1511,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1526,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1541,7 +1543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1554,15 +1556,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
     </row>
@@ -1580,23 +1582,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>30</v>
       </c>
@@ -1666,37 +1668,37 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="12"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
@@ -1706,7 +1708,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
         <v>10</v>
@@ -1750,17 +1752,17 @@
       <selection activeCell="B10" sqref="B10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1805,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
@@ -1846,7 +1848,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="33" t="s">
         <v>25</v>
@@ -1887,7 +1889,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="31" t="s">
         <v>21</v>
@@ -1928,7 +1930,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="34" t="s">
         <v>26</v>
@@ -1969,7 +1971,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="31" t="s">
         <v>27</v>
@@ -2010,7 +2012,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="42" t="s">
         <v>32</v>
@@ -2051,7 +2053,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="42" t="s">
         <v>38</v>
@@ -2092,7 +2094,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="31" t="s">
         <v>39</v>
@@ -2133,7 +2135,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="42" t="s">
         <v>40</v>
@@ -2174,7 +2176,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2193,7 +2195,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2214,7 +2216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2235,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2256,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2284,27 +2286,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E667C8-1B91-474D-8867-5FDB69B5DA40}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -2347,7 +2349,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
@@ -2390,7 +2392,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="42" t="s">
         <v>21</v>
@@ -2431,7 +2433,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="42" t="s">
         <v>32</v>
@@ -2472,7 +2474,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="42" t="s">
         <v>33</v>
@@ -2513,24 +2515,38 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
+      <c r="G6" s="90">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H6" s="90">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="29">
+        <v>42.5</v>
+      </c>
+      <c r="J6" s="90">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="91">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L6" s="90">
+        <v>0</v>
+      </c>
+      <c r="M6" s="90">
+        <v>0.05</v>
+      </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -2547,7 +2563,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -2564,7 +2580,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -2581,7 +2597,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -2598,7 +2614,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2617,7 +2633,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2638,7 +2654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2659,7 +2675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2680,7 +2696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2708,31 +2724,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D424B6-0A2D-4B8E-A00A-7527EDEF6888}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="55"/>
-    <col min="6" max="6" width="12.140625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="55"/>
+    <col min="6" max="6" width="12.1640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="55" customWidth="1"/>
     <col min="10" max="10" width="17" style="55" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="55" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="55" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="55" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="55" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="55"/>
+    <col min="11" max="11" width="15.1640625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="55" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="55" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" style="55" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
@@ -2775,7 +2791,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
@@ -2786,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="60" t="s">
         <v>22</v>
@@ -2818,7 +2834,7 @@
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="54"/>
       <c r="B3" s="62" t="s">
         <v>21</v>
@@ -2827,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>22</v>
@@ -2859,7 +2875,7 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="54"/>
       <c r="B4" s="63" t="s">
         <v>27</v>
@@ -2868,13 +2884,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="64">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="61">
         <v>0.1</v>
@@ -2900,7 +2916,7 @@
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="54"/>
       <c r="B5" s="62" t="s">
         <v>38</v>
@@ -2909,13 +2925,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="61">
         <v>0.1</v>
@@ -2941,7 +2957,7 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
     </row>
-    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="54"/>
       <c r="B6" s="63" t="s">
         <v>39</v>
@@ -2950,13 +2966,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="61">
         <v>0.1</v>
@@ -2982,7 +2998,7 @@
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
       <c r="B7" s="75" t="s">
         <v>44</v>
@@ -3001,7 +3017,7 @@
       <c r="N7" s="65"/>
       <c r="O7" s="65"/>
     </row>
-    <row r="8" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65"/>
       <c r="B8" s="76" t="s">
         <v>45</v>
@@ -3020,7 +3036,7 @@
       <c r="N8" s="65"/>
       <c r="O8" s="65"/>
     </row>
-    <row r="9" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65"/>
       <c r="B9" s="75" t="s">
         <v>46</v>
@@ -3039,7 +3055,7 @@
       <c r="N9" s="65"/>
       <c r="O9" s="65"/>
     </row>
-    <row r="10" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65"/>
       <c r="B10" s="66" t="s">
         <v>47</v>
@@ -3058,7 +3074,7 @@
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
     </row>
-    <row r="11" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65"/>
       <c r="B11" s="76" t="s">
         <v>48</v>
@@ -3077,7 +3093,7 @@
       <c r="N11" s="65"/>
       <c r="O11" s="65"/>
     </row>
-    <row r="12" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65"/>
       <c r="B12" s="76" t="s">
         <v>51</v>
@@ -3096,7 +3112,7 @@
       <c r="N12" s="65"/>
       <c r="O12" s="65"/>
     </row>
-    <row r="13" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65"/>
       <c r="B13" s="76" t="s">
         <v>56</v>
@@ -3115,7 +3131,7 @@
       <c r="N13" s="65"/>
       <c r="O13" s="65"/>
     </row>
-    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="62" t="s">
         <v>40</v>
@@ -3124,13 +3140,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="60">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="61">
         <v>0.1</v>
@@ -3156,7 +3172,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="62" t="s">
         <v>33</v>
@@ -3165,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="59">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>22</v>
@@ -3197,7 +3213,7 @@
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
     </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
         <v>24</v>
@@ -3206,13 +3222,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16" s="61">
         <v>0.1</v>
@@ -3238,7 +3254,7 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
     </row>
-    <row r="17" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
       <c r="B17" s="66" t="s">
         <v>43</v>
@@ -3257,7 +3273,7 @@
       <c r="N17" s="65"/>
       <c r="O17" s="65"/>
     </row>
-    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="76" t="s">
         <v>52</v>
@@ -3276,7 +3292,7 @@
       <c r="N18" s="65"/>
       <c r="O18" s="65"/>
     </row>
-    <row r="19" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
       <c r="B19" s="76" t="s">
         <v>55</v>
@@ -3295,7 +3311,7 @@
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>
     </row>
-    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="72" t="s">
         <v>25</v>
@@ -3304,13 +3320,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G20" s="61">
         <v>0.1</v>
@@ -3336,7 +3352,7 @@
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
     </row>
-    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="62" t="s">
         <v>32</v>
@@ -3345,7 +3361,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>22</v>
@@ -3377,7 +3393,7 @@
       <c r="N21" s="54"/>
       <c r="O21" s="54"/>
     </row>
-    <row r="22" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="65"/>
       <c r="B22" s="76" t="s">
         <v>49</v>
@@ -3396,7 +3412,7 @@
       <c r="N22" s="65"/>
       <c r="O22" s="65"/>
     </row>
-    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65"/>
       <c r="B23" s="76" t="s">
         <v>50</v>
@@ -3415,7 +3431,7 @@
       <c r="N23" s="65"/>
       <c r="O23" s="65"/>
     </row>
-    <row r="24" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="65"/>
       <c r="B24" s="76" t="s">
         <v>53</v>
@@ -3434,7 +3450,7 @@
       <c r="N24" s="65"/>
       <c r="O24" s="65"/>
     </row>
-    <row r="25" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="65"/>
       <c r="B25" s="76" t="s">
         <v>54</v>
@@ -3453,7 +3469,7 @@
       <c r="N25" s="65"/>
       <c r="O25" s="65"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="62"/>
       <c r="C26" s="58"/>
@@ -3470,7 +3486,7 @@
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
       <c r="B27" s="63"/>
       <c r="C27" s="58"/>
@@ -3487,7 +3503,7 @@
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="62"/>
       <c r="C28" s="58"/>
@@ -3507,7 +3523,7 @@
       <c r="O28" s="83"/>
       <c r="P28" s="79"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -3529,7 +3545,7 @@
       </c>
       <c r="P29" s="79"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -3551,7 +3567,7 @@
       </c>
       <c r="P30" s="79"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -3573,7 +3589,7 @@
       </c>
       <c r="P31" s="79"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -3593,7 +3609,7 @@
       </c>
       <c r="P32" s="79"/>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N33" s="81"/>
       <c r="O33" s="81"/>
     </row>

--- a/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
+++ b/Deliverable_4/Blackbear-Consultants_Deliverable_4_SprintBacklog_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Documents\GitHub\Blackbear-Consultants\Deliverable_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/Deliverable_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47B456-E56B-4AED-BCCC-70DB245E7A76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB216F5F-A28D-3E46-A085-ACB2315D310E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
+    <workbookView xWindow="4580" yWindow="460" windowWidth="21020" windowHeight="15540" activeTab="5" xr2:uid="{29D05152-AD15-448E-8A0D-C19F810C4EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="D1-Sprint 1" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="D3-Sprint 5" sheetId="6" r:id="rId5"/>
     <sheet name="D4-Sprint 6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1082,24 +1082,24 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="D3" s="10"/>
@@ -1181,7 +1181,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="D4" s="10"/>
@@ -1193,7 +1193,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="D5" s="10"/>
@@ -1205,7 +1205,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="10"/>
@@ -1217,7 +1217,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="D7" s="10"/>
@@ -1229,7 +1229,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="D8" s="10"/>
@@ -1247,7 +1247,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1262,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1277,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1305,15 +1305,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
     </row>
@@ -1330,25 +1330,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="95.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.83203125" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="12"/>
       <c r="D3" s="10"/>
@@ -1430,7 +1430,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="12"/>
       <c r="D4" s="10"/>
@@ -1442,7 +1442,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="12"/>
       <c r="D5" s="10"/>
@@ -1454,7 +1454,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="D6" s="10"/>
@@ -1466,7 +1466,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="D7" s="10"/>
@@ -1478,7 +1478,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="D8" s="10"/>
@@ -1496,7 +1496,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1541,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1554,15 +1554,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
     </row>
@@ -1580,23 +1580,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>30</v>
       </c>
@@ -1666,37 +1666,37 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="12"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="12"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="12"/>
       <c r="C8" s="10"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
         <v>10</v>
@@ -1750,17 +1750,17 @@
       <selection activeCell="B10" sqref="B10:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="33" t="s">
         <v>25</v>
@@ -1887,7 +1887,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="31" t="s">
         <v>21</v>
@@ -1928,7 +1928,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="34" t="s">
         <v>26</v>
@@ -1969,7 +1969,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="31" t="s">
         <v>27</v>
@@ -2010,7 +2010,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="42" t="s">
         <v>32</v>
@@ -2051,7 +2051,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="42" t="s">
         <v>38</v>
@@ -2092,7 +2092,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="31" t="s">
         <v>39</v>
@@ -2133,7 +2133,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="42" t="s">
         <v>40</v>
@@ -2174,7 +2174,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2235,7 +2235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2256,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2288,23 +2288,23 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="42" t="s">
         <v>21</v>
@@ -2431,7 +2431,7 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="42" t="s">
         <v>32</v>
@@ -2472,7 +2472,7 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="42" t="s">
         <v>33</v>
@@ -2513,7 +2513,7 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -2530,7 +2530,7 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -2547,7 +2547,7 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -2564,7 +2564,7 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -2581,7 +2581,7 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -2598,7 +2598,7 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="O11" s="36"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2680,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2708,31 +2708,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D424B6-0A2D-4B8E-A00A-7527EDEF6888}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="55"/>
-    <col min="6" max="6" width="12.140625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="55" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="55"/>
+    <col min="6" max="6" width="12.1640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="55" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="55" customWidth="1"/>
     <col min="10" max="10" width="17" style="55" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="55" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="55" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="55" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" style="55" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="55" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="55"/>
+    <col min="11" max="11" width="15.1640625" style="55" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="55" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="55" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" style="55" customWidth="1"/>
+    <col min="15" max="15" width="27.1640625" style="55" customWidth="1"/>
+    <col min="16" max="16384" width="11.5" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
@@ -2775,7 +2775,7 @@
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
     </row>
-    <row r="3" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="54"/>
       <c r="B3" s="62" t="s">
         <v>21</v>
@@ -2859,7 +2859,7 @@
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
     </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="54"/>
       <c r="B4" s="63" t="s">
         <v>27</v>
@@ -2900,7 +2900,7 @@
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
     </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="54"/>
       <c r="B5" s="62" t="s">
         <v>38</v>
@@ -2941,7 +2941,7 @@
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
     </row>
-    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="54"/>
       <c r="B6" s="63" t="s">
         <v>39</v>
@@ -2982,7 +2982,7 @@
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
       <c r="B7" s="75" t="s">
         <v>44</v>
@@ -3001,7 +3001,7 @@
       <c r="N7" s="65"/>
       <c r="O7" s="65"/>
     </row>
-    <row r="8" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65"/>
       <c r="B8" s="76" t="s">
         <v>45</v>
@@ -3020,7 +3020,7 @@
       <c r="N8" s="65"/>
       <c r="O8" s="65"/>
     </row>
-    <row r="9" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="65"/>
       <c r="B9" s="75" t="s">
         <v>46</v>
@@ -3039,7 +3039,7 @@
       <c r="N9" s="65"/>
       <c r="O9" s="65"/>
     </row>
-    <row r="10" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="65"/>
       <c r="B10" s="66" t="s">
         <v>47</v>
@@ -3058,7 +3058,7 @@
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
     </row>
-    <row r="11" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="65"/>
       <c r="B11" s="76" t="s">
         <v>48</v>
@@ -3077,7 +3077,7 @@
       <c r="N11" s="65"/>
       <c r="O11" s="65"/>
     </row>
-    <row r="12" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65"/>
       <c r="B12" s="76" t="s">
         <v>51</v>
@@ -3096,7 +3096,7 @@
       <c r="N12" s="65"/>
       <c r="O12" s="65"/>
     </row>
-    <row r="13" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65"/>
       <c r="B13" s="76" t="s">
         <v>56</v>
@@ -3115,7 +3115,7 @@
       <c r="N13" s="65"/>
       <c r="O13" s="65"/>
     </row>
-    <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="62" t="s">
         <v>40</v>
@@ -3156,7 +3156,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="54"/>
       <c r="B15" s="62" t="s">
         <v>33</v>
@@ -3197,7 +3197,7 @@
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
     </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="54"/>
       <c r="B16" s="63" t="s">
         <v>24</v>
@@ -3238,7 +3238,7 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
     </row>
-    <row r="17" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
       <c r="B17" s="66" t="s">
         <v>43</v>
@@ -3257,7 +3257,7 @@
       <c r="N17" s="65"/>
       <c r="O17" s="65"/>
     </row>
-    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="76" t="s">
         <v>52</v>
@@ -3276,7 +3276,7 @@
       <c r="N18" s="65"/>
       <c r="O18" s="65"/>
     </row>
-    <row r="19" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
       <c r="B19" s="76" t="s">
         <v>55</v>
@@ -3295,7 +3295,7 @@
       <c r="N19" s="65"/>
       <c r="O19" s="65"/>
     </row>
-    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="72" t="s">
         <v>25</v>
@@ -3336,7 +3336,7 @@
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
     </row>
-    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="54"/>
       <c r="B21" s="62" t="s">
         <v>32</v>
@@ -3377,7 +3377,7 @@
       <c r="N21" s="54"/>
       <c r="O21" s="54"/>
     </row>
-    <row r="22" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="65"/>
       <c r="B22" s="76" t="s">
         <v>49</v>
@@ -3396,7 +3396,7 @@
       <c r="N22" s="65"/>
       <c r="O22" s="65"/>
     </row>
-    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65"/>
       <c r="B23" s="76" t="s">
         <v>50</v>
@@ -3415,7 +3415,7 @@
       <c r="N23" s="65"/>
       <c r="O23" s="65"/>
     </row>
-    <row r="24" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="65"/>
       <c r="B24" s="76" t="s">
         <v>53</v>
@@ -3434,7 +3434,7 @@
       <c r="N24" s="65"/>
       <c r="O24" s="65"/>
     </row>
-    <row r="25" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="65"/>
       <c r="B25" s="76" t="s">
         <v>54</v>
@@ -3453,7 +3453,7 @@
       <c r="N25" s="65"/>
       <c r="O25" s="65"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="62"/>
       <c r="C26" s="58"/>
@@ -3470,7 +3470,7 @@
       <c r="N26" s="54"/>
       <c r="O26" s="54"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
       <c r="B27" s="63"/>
       <c r="C27" s="58"/>
@@ -3487,7 +3487,7 @@
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="62"/>
       <c r="C28" s="58"/>
@@ -3507,7 +3507,7 @@
       <c r="O28" s="83"/>
       <c r="P28" s="79"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="54"/>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="P29" s="79"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="P30" s="79"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="P31" s="79"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="P32" s="79"/>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N33" s="81"/>
       <c r="O33" s="81"/>
     </row>
